--- a/public/products.xlsx
+++ b/public/products.xlsx
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G714"/>
+  <dimension ref="A1:H714"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -428,9 +428,12 @@
         <v xml:space="preserve">for costumer </v>
       </c>
       <c r="F1" t="str">
+        <v>for customer</v>
+      </c>
+      <c r="G1" t="str">
         <v>Updated date</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>Previous price</v>
       </c>
     </row>
@@ -445,10 +448,13 @@
         <v>No</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
         <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -850,10 +856,10 @@
       <c r="E37">
         <v>550</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>45262</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>300</v>
       </c>
     </row>
@@ -1950,10 +1956,10 @@
       <c r="E131">
         <v>3000</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>45265</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>2200</v>
       </c>
     </row>
@@ -2433,7 +2439,7 @@
       <c r="D176">
         <v>22</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>45051</v>
       </c>
     </row>
@@ -2684,7 +2690,7 @@
       <c r="E195">
         <v>100</v>
       </c>
-      <c r="F195" t="str">
+      <c r="G195" t="str">
         <v>19/5/23</v>
       </c>
     </row>
@@ -6725,7 +6731,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G714"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H714"/>
   </ignoredErrors>
 </worksheet>
 </file>